--- a/public/assets/examexcel/Data Siswa Kelas XII BC.xlsx
+++ b/public/assets/examexcel/Data Siswa Kelas XII BC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5da8a393d89142a7/Dokumen/Web-Kelulusan/public/assets/examexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DF1BDD66415C5F971DE3C1A1FEC09D2EE5F1DEE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -683,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
@@ -1446,16 +1438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1511,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1538,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1565,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1619,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1646,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1673,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1700,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1781,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1808,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1835,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1889,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1916,7 +1908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -1970,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1997,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2024,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2051,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2105,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2132,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2159,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2186,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2213,7 +2205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2240,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2267,7 +2259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2294,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2321,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2348,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2375,7 +2367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2402,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2429,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -2456,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2483,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -2510,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -2537,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -2564,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -2591,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -2618,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -2672,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -2699,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -2726,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -2753,7 +2745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -2780,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -2807,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -2834,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -2861,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -2888,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -2915,7 +2907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -2942,7 +2934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -2969,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -2996,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3023,7 +3015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -3050,7 +3042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3077,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -3104,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3131,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A63" s="24">
         <v>62</v>
       </c>
@@ -3158,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3185,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -3212,7 +3204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -3239,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -3266,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="17">
         <v>68</v>
       </c>
